--- a/bin/Debug/netcoreapp3.1/.xlsx
+++ b/bin/Debug/netcoreapp3.1/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -20,7 +20,7 @@
     <t>Device Information</t>
   </si>
   <si>
-    <t>Connect hearing instrument</t>
+    <t>Reading device info...</t>
   </si>
   <si>
     <t>Model Name</t>
@@ -74,28 +74,55 @@
     <t>Final Test Date</t>
   </si>
   <si>
+    <t>2023-08-25 11:29:24</t>
+  </si>
+  <si>
     <t>Test Program</t>
   </si>
   <si>
+    <t>7F9E-2AB8-B0A3</t>
+  </si>
+  <si>
     <t>Test Station</t>
   </si>
   <si>
+    <t>FSWIRAY112</t>
+  </si>
+  <si>
     <t>Test Site</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>Fitting Software</t>
   </si>
   <si>
+    <t>SmartFit ?.16.37.0</t>
+  </si>
+  <si>
     <t>Fitting Side</t>
   </si>
   <si>
+    <t>Left</t>
+  </si>
+  <si>
     <t>Binaural</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Cloud HIID</t>
   </si>
   <si>
+    <t>Registered</t>
+  </si>
+  <si>
     <t>Paired Accessories</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -295,71 +322,71 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/netcoreapp3.1/.xlsx
+++ b/bin/Debug/netcoreapp3.1/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t/>
   </si>
@@ -74,55 +74,28 @@
     <t>Final Test Date</t>
   </si>
   <si>
-    <t>2023-08-25 11:29:24</t>
-  </si>
-  <si>
     <t>Test Program</t>
   </si>
   <si>
-    <t>7F9E-2AB8-B0A3</t>
-  </si>
-  <si>
     <t>Test Station</t>
   </si>
   <si>
-    <t>FSWIRAY112</t>
-  </si>
-  <si>
     <t>Test Site</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>Fitting Software</t>
   </si>
   <si>
-    <t>SmartFit ?.16.37.0</t>
-  </si>
-  <si>
     <t>Fitting Side</t>
   </si>
   <si>
-    <t>Left</t>
-  </si>
-  <si>
     <t>Binaural</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Cloud HIID</t>
   </si>
   <si>
-    <t>Registered</t>
-  </si>
-  <si>
     <t>Paired Accessories</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -322,71 +295,71 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/netcoreapp3.1/.xlsx
+++ b/bin/Debug/netcoreapp3.1/.xlsx
@@ -20,7 +20,7 @@
     <t>Device Information</t>
   </si>
   <si>
-    <t>Reading device info...</t>
+    <t>Connect hearing instrument</t>
   </si>
   <si>
     <t>Model Name</t>

--- a/bin/Debug/netcoreapp3.1/.xlsx
+++ b/bin/Debug/netcoreapp3.1/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -20,7 +20,7 @@
     <t>Device Information</t>
   </si>
   <si>
-    <t>Connect hearing instrument</t>
+    <t>Reading device info...</t>
   </si>
   <si>
     <t>Model Name</t>
@@ -50,9 +50,15 @@
     <t>Push Button</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Telecoil</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>DAI</t>
   </si>
   <si>
@@ -74,28 +80,52 @@
     <t>Final Test Date</t>
   </si>
   <si>
+    <t>2023-11-21 22:59:02</t>
+  </si>
+  <si>
     <t>Test Program</t>
   </si>
   <si>
+    <t>7F9E-2AB8-B0A3</t>
+  </si>
+  <si>
     <t>Test Station</t>
   </si>
   <si>
+    <t>FSWIRAY112</t>
+  </si>
+  <si>
     <t>Test Site</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>Fitting Software</t>
   </si>
   <si>
+    <t>SmartFit ?.16.37.0</t>
+  </si>
+  <si>
     <t>Fitting Side</t>
   </si>
   <si>
+    <t>Left</t>
+  </si>
+  <si>
     <t>Binaural</t>
   </si>
   <si>
     <t>Cloud HIID</t>
   </si>
   <si>
+    <t>Registered</t>
+  </si>
+  <si>
     <t>Paired Accessories</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -231,44 +261,44 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>0</v>
@@ -276,7 +306,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>0</v>
@@ -284,7 +314,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>0</v>
@@ -292,74 +322,74 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
